--- a/springboot-websocket/src/main/resources/excel/template.xlsx
+++ b/springboot-websocket/src/main/resources/excel/template.xlsx
@@ -9,28 +9,35 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{userId}</t>
+    <t>用户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{userName}</t>
+    <t>{.userName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名称</t>
+    <t>{.userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不规则数据（时间）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{date}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +61,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,18 +90,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,14 +109,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,31 +447,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -435,26 +493,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>